--- a/jupiter.xlsx
+++ b/jupiter.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="502">
   <si>
-    <t xml:space="preserve">Label </t>
+    <t xml:space="preserve">Label</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -34,37 +34,37 @@
     <t xml:space="preserve">Image</t>
   </si>
   <si>
-    <t xml:space="preserve">Abs. Magn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter (km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass (×1015 kg) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-major axis (km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orbital period (d) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inclination (°) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eccentricity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discovery year </t>
+    <t xml:space="preserve">Abs. magn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter (km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass (x1015 kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-major axis (km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbital period (d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclination (°)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eccentricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discovery year</t>
   </si>
   <si>
     <t xml:space="preserve">Year announced</t>
   </si>
   <si>
-    <t xml:space="preserve">Discoverer </t>
+    <t xml:space="preserve">Discoverer</t>
   </si>
   <si>
     <t xml:space="preserve">Group</t>
@@ -1616,12 +1616,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1828,4231 +1824,4228 @@
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.82"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>10.5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>128000</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="2" t="n">
         <v>0.0002</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="2" t="n">
         <v>1980</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>129000</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="2" t="n">
         <v>0.0015</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="2" t="n">
         <v>1979</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>7.1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>181400</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="2" t="n">
         <v>0.0032</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="2" t="n">
         <v>1892</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>221900</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="2" t="n">
         <v>0.0175</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="N5" s="2" t="n">
         <v>1980</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>-1.7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>421800</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="2" t="n">
         <v>0.0041</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="2" t="n">
         <v>1610</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>-1.4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="2" t="n">
         <v>671100</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="2" t="n">
         <v>0.009</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="2" t="n">
         <v>1610</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>-2.1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="2" t="n">
         <v>1070400</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="2" t="n">
         <v>0.0013</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="2" t="n">
         <v>1610</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>-1.2</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="2" t="n">
         <v>1882700</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="2" t="n">
         <v>0.0074</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="2" t="n">
         <v>1610</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>13.3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="2" t="n">
         <v>7397000</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="2" t="n">
         <v>0.257</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="2" t="n">
         <v>1975</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>12.7</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="2" t="n">
         <v>11145200</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="2" t="n">
         <v>0.162</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="2" t="n">
         <v>1974</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="2" t="n">
         <v>11399400</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12" s="2" t="n">
         <v>0.117</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>16.5</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="2" t="n">
         <v>11419700</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="2" t="n">
         <v>0.152</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="N13" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="2" t="n">
         <v>11439000</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="2" t="n">
         <v>1905</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>16.2</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="2" t="n">
         <v>11479600</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="2" t="n">
         <v>0.178</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="N15" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>11.2</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="2" t="n">
         <v>11699100</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="K16" s="2" t="n">
         <v>0.117</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="N16" s="2" t="n">
         <v>1938</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>9.7</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="2" t="n">
         <v>11710700</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="2" t="n">
         <v>0.212</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="N17" s="2" t="n">
         <v>1905</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="2" t="n">
         <v>11716800</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="K18" s="2" t="n">
         <v>0.192</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="N18" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2" t="n">
         <v>16.1</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="2" t="n">
         <v>12257900</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="K19" s="2" t="n">
         <v>0.232</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="N19" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="2" t="n">
         <v>16328500</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="K20" s="2" t="n">
         <v>0.177</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="N20" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2" t="n">
         <v>16.2</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="2" t="n">
         <v>17039500</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K21" s="1" t="n">
+      <c r="K21" s="2" t="n">
         <v>0.415</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="N21" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="2" t="n">
         <v>18690100</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="K22" s="2" t="n">
         <v>0.217</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1" t="s">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="N22" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="2" t="n">
         <v>19261900</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="K23" s="2" t="n">
         <v>0.148</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1" t="s">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="N23" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2" t="n">
         <v>16.4</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="2" t="n">
         <v>20332800</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K24" s="1" t="n">
+      <c r="K24" s="2" t="n">
         <v>0.102</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N24" s="1" t="n">
+      <c r="N24" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="2" t="n">
         <v>16.6</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="2" t="n">
         <v>20763400</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K25" s="1" t="n">
+      <c r="K25" s="2" t="n">
         <v>0.234</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N25" s="1" t="n">
+      <c r="N25" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="2" t="n">
         <v>17.2</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="2" t="n">
         <v>20776600</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="1" t="n">
+      <c r="K26" s="2" t="n">
         <v>0.239</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="N26" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="2" t="n">
         <v>17.4</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="2" t="n">
         <v>20786900</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K27" s="1" t="n">
+      <c r="K27" s="2" t="n">
         <v>0.244</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1" t="s">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="N27" s="1" t="n">
+      <c r="N27" s="2" t="n">
         <v>2011</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="2" t="n">
         <v>20796700</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K28" s="1" t="n">
+      <c r="K28" s="2" t="n">
         <v>0.245</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1" t="s">
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N28" s="1" t="n">
+      <c r="N28" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="2" t="n">
         <v>20815800</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="K29" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N29" s="1" t="n">
+      <c r="N29" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="2" t="n">
         <v>16.4</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="2" t="n">
         <v>20822900</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="K30" s="2" t="n">
         <v>0.243</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N30" s="1" t="n">
+      <c r="N30" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="2" t="n">
         <v>20877500</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="K31" s="2" t="n">
         <v>0.238</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1" t="s">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N31" s="1" t="n">
+      <c r="N31" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="2" t="n">
         <v>15.9</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="2" t="n">
         <v>20887500</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="K32" s="2" t="n">
         <v>0.239</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1" t="s">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N32" s="1" t="n">
+      <c r="N32" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P32" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="2" t="n">
         <v>16.6</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="2" t="n">
         <v>20897800</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K33" s="1" t="n">
+      <c r="K33" s="2" t="n">
         <v>0.294</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1" t="s">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N33" s="1" t="n">
+      <c r="N33" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="2" t="n">
         <v>20911400</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K34" s="1" t="n">
+      <c r="K34" s="2" t="n">
         <v>0.155</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
+      <c r="L34" s="2"/>
+      <c r="M34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N34" s="1" t="n">
+      <c r="N34" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="2" t="n">
         <v>20926600</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K35" s="1" t="n">
+      <c r="K35" s="2" t="n">
         <v>0.242</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1" t="s">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N35" s="1" t="n">
+      <c r="N35" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="2" t="n">
         <v>14.9</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="2" t="n">
         <v>20931100</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K36" s="1" t="n">
+      <c r="K36" s="2" t="n">
         <v>0.245</v>
       </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1" t="s">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N36" s="1" t="n">
+      <c r="N36" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="2" t="n">
         <v>16.5</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="2" t="n">
         <v>20936500</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K37" s="1" t="n">
+      <c r="K37" s="2" t="n">
         <v>0.238</v>
       </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1" t="s">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N37" s="1" t="n">
+      <c r="N37" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="P37" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="2" t="n">
         <v>20954700</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K38" s="1" t="n">
+      <c r="K38" s="2" t="n">
         <v>0.228</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1" t="s">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N38" s="1" t="n">
+      <c r="N38" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="P38" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H39" s="1" t="n">
+      <c r="H39" s="2" t="n">
         <v>20959300</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="K39" s="1" t="n">
+      <c r="K39" s="2" t="n">
         <v>0.235</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1" t="s">
+      <c r="L39" s="2"/>
+      <c r="M39" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N39" s="1" t="n">
+      <c r="N39" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="2" t="n">
         <v>16.6</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="H40" s="2" t="n">
         <v>20960400</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K40" s="1" t="n">
+      <c r="K40" s="2" t="n">
         <v>0.235</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1" t="s">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N40" s="1" t="n">
+      <c r="N40" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="P40" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="2" t="n">
         <v>20972300</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K41" s="1" t="n">
+      <c r="K41" s="2" t="n">
         <v>0.229</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1" t="s">
+      <c r="L41" s="2"/>
+      <c r="M41" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N41" s="1" t="n">
+      <c r="N41" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="H42" s="2" t="n">
         <v>20972700</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K42" s="1" t="n">
+      <c r="K42" s="2" t="n">
         <v>0.235</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1" t="s">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N42" s="1" t="n">
+      <c r="N42" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="P42" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="1" t="n">
+      <c r="H43" s="2" t="n">
         <v>20992900</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="K43" s="1" t="n">
+      <c r="K43" s="2" t="n">
         <v>0.225</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1" t="s">
+      <c r="L43" s="2"/>
+      <c r="M43" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N43" s="1" t="n">
+      <c r="N43" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P43" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="2" t="n">
         <v>17.4</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="H44" s="2" t="n">
         <v>21015100</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K44" s="1" t="n">
+      <c r="K44" s="2" t="n">
         <v>0.248</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1" t="s">
+      <c r="L44" s="2"/>
+      <c r="M44" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N44" s="1" t="n">
+      <c r="N44" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P44" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="2" t="n">
         <v>11.7</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H45" s="1" t="n">
+      <c r="H45" s="2" t="n">
         <v>21029500</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K45" s="1" t="n">
+      <c r="K45" s="2" t="n">
         <v>0.238</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1" t="s">
+      <c r="L45" s="2"/>
+      <c r="M45" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="N45" s="1" t="n">
+      <c r="N45" s="2" t="n">
         <v>1951</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P45" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H46" s="1" t="n">
+      <c r="H46" s="2" t="n">
         <v>21062300</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K46" s="1" t="n">
+      <c r="K46" s="2" t="n">
         <v>0.223</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1" t="s">
+      <c r="L46" s="2"/>
+      <c r="M46" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N46" s="1" t="n">
+      <c r="N46" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="P46" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="1" t="n">
+      <c r="H47" s="2" t="n">
         <v>21075800</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K47" s="1" t="n">
+      <c r="K47" s="2" t="n">
         <v>0.209</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1" t="s">
+      <c r="L47" s="2"/>
+      <c r="M47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N47" s="1" t="n">
+      <c r="N47" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="P47" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="2" t="n">
         <v>21103600</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K48" s="1" t="n">
+      <c r="K48" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1" t="s">
+      <c r="L48" s="2"/>
+      <c r="M48" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N48" s="1" t="n">
+      <c r="N48" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="P48" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="2" t="n">
         <v>16.2</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H49" s="1" t="n">
+      <c r="H49" s="2" t="n">
         <v>21764200</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K49" s="1" t="n">
+      <c r="K49" s="2" t="n">
         <v>0.197</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1" t="s">
+      <c r="L49" s="2"/>
+      <c r="M49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N49" s="1" t="n">
+      <c r="N49" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P49" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H50" s="1" t="n">
+      <c r="H50" s="2" t="n">
         <v>22600200</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K50" s="1" t="n">
+      <c r="K50" s="2" t="n">
         <v>0.221</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1" t="s">
+      <c r="L50" s="2"/>
+      <c r="M50" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N50" s="1" t="n">
+      <c r="N50" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P50" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H51" s="1" t="n">
+      <c r="H51" s="2" t="n">
         <v>22719300</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K51" s="1" t="n">
+      <c r="K51" s="2" t="n">
         <v>0.251</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1" t="s">
+      <c r="L51" s="2"/>
+      <c r="M51" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N51" s="1" t="n">
+      <c r="N51" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="P51" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E52" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H52" s="1" t="n">
+      <c r="H52" s="2" t="n">
         <v>22744700</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K52" s="1" t="n">
+      <c r="K52" s="2" t="n">
         <v>0.257</v>
       </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1" t="s">
+      <c r="L52" s="2"/>
+      <c r="M52" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N52" s="1" t="n">
+      <c r="N52" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P52" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E53" s="2" t="n">
         <v>17.1</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H53" s="1" t="n">
+      <c r="H53" s="2" t="n">
         <v>22819600</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K53" s="1" t="n">
+      <c r="K53" s="2" t="n">
         <v>0.259</v>
       </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1" t="s">
+      <c r="L53" s="2"/>
+      <c r="M53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N53" s="1" t="n">
+      <c r="N53" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="O53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="P53" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="2" t="n">
         <v>16.8</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H54" s="1" t="n">
+      <c r="H54" s="2" t="n">
         <v>22840800</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K54" s="1" t="n">
+      <c r="K54" s="2" t="n">
         <v>0.274</v>
       </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1" t="s">
+      <c r="L54" s="2"/>
+      <c r="M54" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N54" s="1" t="n">
+      <c r="N54" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O54" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P54" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H55" s="1" t="n">
+      <c r="H55" s="2" t="n">
         <v>22870400</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K55" s="1" t="n">
+      <c r="K55" s="2" t="n">
         <v>0.271</v>
       </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1" t="s">
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N55" s="1" t="n">
+      <c r="N55" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="O55" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="P55" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E56" s="2" t="n">
         <v>16.6</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H56" s="1" t="n">
+      <c r="H56" s="2" t="n">
         <v>22882400</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K56" s="1" t="n">
+      <c r="K56" s="2" t="n">
         <v>0.263</v>
       </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1" t="s">
+      <c r="L56" s="2"/>
+      <c r="M56" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N56" s="1" t="n">
+      <c r="N56" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="O56" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="P56" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E57" s="2" t="n">
         <v>16.2</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H57" s="1" t="n">
+      <c r="H57" s="2" t="n">
         <v>22894500</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K57" s="1" t="n">
+      <c r="K57" s="2" t="n">
         <v>0.287</v>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1" t="s">
+      <c r="L57" s="2"/>
+      <c r="M57" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N57" s="1" t="n">
+      <c r="N57" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="O57" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="P57" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E58" s="2" t="n">
         <v>16.8</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H58" s="1" t="n">
+      <c r="H58" s="2" t="n">
         <v>22903400</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="K58" s="1" t="n">
+      <c r="K58" s="2" t="n">
         <v>0.358</v>
       </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1" t="s">
+      <c r="L58" s="2"/>
+      <c r="M58" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N58" s="1" t="n">
+      <c r="N58" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="O58" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P58" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E59" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H59" s="1" t="n">
+      <c r="H59" s="2" t="n">
         <v>22922300</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="K59" s="1" t="n">
+      <c r="K59" s="2" t="n">
         <v>0.327</v>
       </c>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1" t="s">
+      <c r="L59" s="2"/>
+      <c r="M59" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N59" s="1" t="n">
+      <c r="N59" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="O59" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="P59" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E60" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H60" s="1" t="n">
+      <c r="H60" s="2" t="n">
         <v>22926300</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K60" s="1" t="n">
+      <c r="K60" s="2" t="n">
         <v>0.261</v>
       </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1" t="s">
+      <c r="L60" s="2"/>
+      <c r="M60" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N60" s="1" t="n">
+      <c r="N60" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="O60" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="P60" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E61" s="2" t="n">
         <v>16.4</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H61" s="1" t="n">
+      <c r="H61" s="2" t="n">
         <v>22949600</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K61" s="1" t="n">
+      <c r="K61" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1" t="s">
+      <c r="L61" s="2"/>
+      <c r="M61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N61" s="1" t="n">
+      <c r="N61" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="O61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E62" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H62" s="1" t="n">
+      <c r="H62" s="2" t="n">
         <v>22976300</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K62" s="1" t="n">
+      <c r="K62" s="2" t="n">
         <v>0.249</v>
       </c>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1" t="s">
+      <c r="L62" s="2"/>
+      <c r="M62" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N62" s="1" t="n">
+      <c r="N62" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="O62" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="P62" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E63" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H63" s="1" t="n">
+      <c r="H63" s="2" t="n">
         <v>22991300</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K63" s="1" t="n">
+      <c r="K63" s="2" t="n">
         <v>0.268</v>
       </c>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1" t="s">
+      <c r="L63" s="2"/>
+      <c r="M63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N63" s="1" t="n">
+      <c r="N63" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="O63" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="P63" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E64" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H64" s="1" t="n">
+      <c r="H64" s="2" t="n">
         <v>23017100</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K64" s="1" t="n">
+      <c r="K64" s="2" t="n">
         <v>0.253</v>
       </c>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1" t="s">
+      <c r="L64" s="2"/>
+      <c r="M64" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N64" s="1" t="n">
+      <c r="N64" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="O64" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="P64" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E65" s="2" t="n">
         <v>17.4</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H65" s="1" t="n">
+      <c r="H65" s="2" t="n">
         <v>23019700</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K65" s="1" t="n">
+      <c r="K65" s="2" t="n">
         <v>0.265</v>
       </c>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1" t="s">
+      <c r="L65" s="2"/>
+      <c r="M65" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N65" s="1" t="n">
+      <c r="N65" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="O65" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="P65" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E66" s="1" t="n">
+      <c r="E66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H66" s="1" t="n">
+      <c r="H66" s="2" t="n">
         <v>23027200</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="K66" s="1" t="n">
+      <c r="K66" s="2" t="n">
         <v>0.272</v>
       </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1" t="s">
+      <c r="L66" s="2"/>
+      <c r="M66" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N66" s="1" t="n">
+      <c r="N66" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="O66" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="P66" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E67" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H67" s="1" t="n">
+      <c r="H67" s="2" t="n">
         <v>23047800</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K67" s="1" t="n">
+      <c r="K67" s="2" t="n">
         <v>0.262</v>
       </c>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1" t="s">
+      <c r="L67" s="2"/>
+      <c r="M67" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N67" s="1" t="n">
+      <c r="N67" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="O67" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="P67" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E68" s="1" t="n">
+      <c r="E68" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="1" t="n">
+      <c r="H68" s="2" t="n">
         <v>23051300</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K68" s="1" t="n">
+      <c r="K68" s="2" t="n">
         <v>0.263</v>
       </c>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1" t="s">
+      <c r="L68" s="2"/>
+      <c r="M68" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N68" s="1" t="n">
+      <c r="N68" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="O68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P68" s="1" t="s">
+      <c r="P68" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E69" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H69" s="1" t="n">
+      <c r="H69" s="2" t="n">
         <v>23059400</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K69" s="1" t="n">
+      <c r="K69" s="2" t="n">
         <v>0.273</v>
       </c>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1" t="s">
+      <c r="L69" s="2"/>
+      <c r="M69" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N69" s="1" t="n">
+      <c r="N69" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="O69" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="P69" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="E70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H70" s="1" t="n">
+      <c r="H70" s="2" t="n">
         <v>23062400</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K70" s="1" t="n">
+      <c r="K70" s="2" t="n">
         <v>0.274</v>
       </c>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1" t="s">
+      <c r="L70" s="2"/>
+      <c r="M70" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N70" s="1" t="n">
+      <c r="N70" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="O70" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="P70" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E71" s="1" t="n">
+      <c r="E71" s="2" t="n">
         <v>17.6</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H71" s="1" t="n">
+      <c r="H71" s="2" t="n">
         <v>23073400</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K71" s="1" t="n">
+      <c r="K71" s="2" t="n">
         <v>0.263</v>
       </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1" t="s">
+      <c r="L71" s="2"/>
+      <c r="M71" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N71" s="1" t="n">
+      <c r="N71" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="O71" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="P71" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E72" s="1" t="n">
+      <c r="E72" s="2" t="n">
         <v>16.2</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H72" s="1" t="n">
+      <c r="H72" s="2" t="n">
         <v>23093200</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K72" s="1" t="n">
+      <c r="K72" s="2" t="n">
         <v>0.263</v>
       </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1" t="s">
+      <c r="L72" s="2"/>
+      <c r="M72" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="N72" s="1" t="n">
+      <c r="N72" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="O72" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="P72" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E73" s="1" t="n">
+      <c r="E73" s="2" t="n">
         <v>15.6</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H73" s="1" t="n">
+      <c r="H73" s="2" t="n">
         <v>23103400</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K73" s="1" t="n">
+      <c r="K73" s="2" t="n">
         <v>0.257</v>
       </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1" t="s">
+      <c r="L73" s="2"/>
+      <c r="M73" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N73" s="1" t="n">
+      <c r="N73" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="O73" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P73" s="1" t="s">
+      <c r="P73" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E74" s="1" t="n">
+      <c r="E74" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H74" s="1" t="n">
+      <c r="H74" s="2" t="n">
         <v>23113900</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="K74" s="1" t="n">
+      <c r="K74" s="2" t="n">
         <v>0.294</v>
       </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1" t="s">
+      <c r="L74" s="2"/>
+      <c r="M74" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N74" s="1" t="n">
+      <c r="N74" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="O74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P74" s="1" t="s">
+      <c r="P74" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E75" s="1" t="n">
+      <c r="E75" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H75" s="1" t="n">
+      <c r="H75" s="2" t="n">
         <v>23120800</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K75" s="1" t="n">
+      <c r="K75" s="2" t="n">
         <v>0.269</v>
       </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1" t="s">
+      <c r="L75" s="2"/>
+      <c r="M75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N75" s="1" t="n">
+      <c r="N75" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="O75" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P75" s="1" t="s">
+      <c r="P75" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E76" s="1" t="n">
+      <c r="E76" s="2" t="n">
         <v>10.6</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H76" s="1" t="n">
+      <c r="H76" s="2" t="n">
         <v>23139200</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K76" s="1" t="n">
+      <c r="K76" s="2" t="n">
         <v>0.261</v>
       </c>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1" t="s">
+      <c r="L76" s="2"/>
+      <c r="M76" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N76" s="1" t="n">
+      <c r="N76" s="2" t="n">
         <v>1938</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="O76" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="P76" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E77" s="1" t="n">
+      <c r="E77" s="2" t="n">
         <v>16.5</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H77" s="1" t="n">
+      <c r="H77" s="2" t="n">
         <v>23146700</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K77" s="1" t="n">
+      <c r="K77" s="2" t="n">
         <v>0.258</v>
       </c>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1" t="s">
+      <c r="L77" s="2"/>
+      <c r="M77" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N77" s="1" t="n">
+      <c r="N77" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="O77" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="P77" s="1" t="s">
+      <c r="P77" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E78" s="1" t="n">
+      <c r="E78" s="2" t="n">
         <v>16.6</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H78" s="1" t="n">
+      <c r="H78" s="2" t="n">
         <v>23153100</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K78" s="1" t="n">
+      <c r="K78" s="2" t="n">
         <v>0.264</v>
       </c>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1" t="s">
+      <c r="L78" s="2"/>
+      <c r="M78" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N78" s="1" t="n">
+      <c r="N78" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="O78" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="P78" s="1" t="s">
+      <c r="P78" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E79" s="1" t="n">
+      <c r="E79" s="2" t="n">
         <v>16.5</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H79" s="1" t="n">
+      <c r="H79" s="2" t="n">
         <v>23185600</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K79" s="1" t="n">
+      <c r="K79" s="2" t="n">
         <v>0.256</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1" t="s">
+      <c r="L79" s="2"/>
+      <c r="M79" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="N79" s="1" t="n">
+      <c r="N79" s="2" t="n">
         <v>2011</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="O79" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="P79" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E80" s="1" t="n">
+      <c r="E80" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H80" s="1" t="n">
+      <c r="H80" s="2" t="n">
         <v>23195100</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K80" s="1" t="n">
+      <c r="K80" s="2" t="n">
         <v>0.268</v>
       </c>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1" t="s">
+      <c r="L80" s="2"/>
+      <c r="M80" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N80" s="1" t="n">
+      <c r="N80" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="O80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="P80" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E81" s="1" t="n">
+      <c r="E81" s="2" t="n">
         <v>16.5</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H81" s="1" t="n">
+      <c r="H81" s="2" t="n">
         <v>23202000</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K81" s="1" t="n">
+      <c r="K81" s="2" t="n">
         <v>0.261</v>
       </c>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1" t="s">
+      <c r="L81" s="2"/>
+      <c r="M81" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N81" s="1" t="n">
+      <c r="N81" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O81" s="1" t="s">
+      <c r="O81" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P81" s="1" t="s">
+      <c r="P81" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E82" s="1" t="n">
+      <c r="E82" s="2" t="n">
         <v>16.6</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H82" s="1" t="n">
+      <c r="H82" s="2" t="n">
         <v>23251200</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K82" s="1" t="n">
+      <c r="K82" s="2" t="n">
         <v>0.333</v>
       </c>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1" t="s">
+      <c r="L82" s="2"/>
+      <c r="M82" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N82" s="1" t="n">
+      <c r="N82" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O82" s="1" t="s">
+      <c r="O82" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P82" s="1" t="s">
+      <c r="P82" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E83" s="1" t="n">
+      <c r="E83" s="2" t="n">
         <v>15.4</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H83" s="1" t="n">
+      <c r="H83" s="2" t="n">
         <v>23298000</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K83" s="1" t="n">
+      <c r="K83" s="2" t="n">
         <v>0.261</v>
       </c>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1" t="s">
+      <c r="L83" s="2"/>
+      <c r="M83" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N83" s="1" t="n">
+      <c r="N83" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="O83" s="1" t="s">
+      <c r="O83" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P83" s="1" t="s">
+      <c r="P83" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E84" s="1" t="n">
+      <c r="E84" s="2" t="n">
         <v>15.9</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H84" s="1" t="n">
+      <c r="H84" s="2" t="n">
         <v>23342600</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="K84" s="1" t="n">
+      <c r="K84" s="2" t="n">
         <v>0.357</v>
       </c>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1" t="s">
+      <c r="L84" s="2"/>
+      <c r="M84" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N84" s="1" t="n">
+      <c r="N84" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O84" s="1" t="s">
+      <c r="O84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P84" s="1" t="s">
+      <c r="P84" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E85" s="1" t="n">
+      <c r="E85" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H85" s="1" t="n">
+      <c r="H85" s="2" t="n">
         <v>23384400</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K85" s="1" t="n">
+      <c r="K85" s="2" t="n">
         <v>0.257</v>
       </c>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1" t="s">
+      <c r="L85" s="2"/>
+      <c r="M85" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N85" s="1" t="n">
+      <c r="N85" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O85" s="1" t="s">
+      <c r="O85" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P85" s="1" t="s">
+      <c r="P85" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E86" s="1" t="n">
+      <c r="E86" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H86" s="1" t="n">
+      <c r="H86" s="2" t="n">
         <v>23400200</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K86" s="1" t="n">
+      <c r="K86" s="2" t="n">
         <v>0.268</v>
       </c>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1" t="s">
+      <c r="L86" s="2"/>
+      <c r="M86" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N86" s="1" t="n">
+      <c r="N86" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O86" s="1" t="s">
+      <c r="O86" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P86" s="1" t="s">
+      <c r="P86" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E87" s="1" t="n">
+      <c r="E87" s="2" t="n">
         <v>16.8</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H87" s="1" t="n">
+      <c r="H87" s="2" t="n">
         <v>23414600</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I87" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K87" s="1" t="n">
+      <c r="K87" s="2" t="n">
         <v>0.272</v>
       </c>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1" t="s">
+      <c r="L87" s="2"/>
+      <c r="M87" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N87" s="1" t="n">
+      <c r="N87" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="O87" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P87" s="1" t="s">
+      <c r="P87" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E88" s="1" t="n">
+      <c r="E88" s="2" t="n">
         <v>10.1</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H88" s="1" t="n">
+      <c r="H88" s="2" t="n">
         <v>23463200</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I88" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="K88" s="1" t="n">
+      <c r="K88" s="2" t="n">
         <v>0.412</v>
       </c>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1" t="s">
+      <c r="L88" s="2"/>
+      <c r="M88" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="N88" s="1" t="n">
+      <c r="N88" s="2" t="n">
         <v>1908</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="O88" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="P88" s="1" t="s">
+      <c r="P88" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E89" s="1" t="n">
+      <c r="E89" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H89" s="1" t="n">
+      <c r="H89" s="2" t="n">
         <v>23538700</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="K89" s="1" t="n">
+      <c r="K89" s="2" t="n">
         <v>0.323</v>
       </c>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1" t="s">
+      <c r="L89" s="2"/>
+      <c r="M89" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N89" s="1" t="n">
+      <c r="N89" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="O89" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P89" s="1" t="s">
+      <c r="P89" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E90" s="1" t="n">
+      <c r="E90" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H90" s="1" t="n">
+      <c r="H90" s="2" t="n">
         <v>23640100</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K90" s="1" t="n">
+      <c r="K90" s="2" t="n">
         <v>0.421</v>
       </c>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1" t="s">
+      <c r="L90" s="2"/>
+      <c r="M90" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N90" s="1" t="n">
+      <c r="N90" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="O90" s="1" t="s">
+      <c r="O90" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P90" s="1" t="s">
+      <c r="P90" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E91" s="1" t="n">
+      <c r="E91" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H91" s="1" t="n">
+      <c r="H91" s="2" t="n">
         <v>23650000</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="K91" s="1" t="n">
+      <c r="K91" s="2" t="n">
         <v>0.421</v>
       </c>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1" t="s">
+      <c r="L91" s="2"/>
+      <c r="M91" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N91" s="1" t="n">
+      <c r="N91" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="O91" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P91" s="1" t="s">
+      <c r="P91" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E92" s="1" t="n">
+      <c r="E92" s="2" t="n">
         <v>11.1</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H92" s="1" t="n">
+      <c r="H92" s="2" t="n">
         <v>23679300</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="K92" s="1" t="n">
+      <c r="K92" s="2" t="n">
         <v>0.262</v>
       </c>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1" t="s">
+      <c r="L92" s="2"/>
+      <c r="M92" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="N92" s="1" t="n">
+      <c r="N92" s="2" t="n">
         <v>1914</v>
       </c>
-      <c r="O92" s="1" t="s">
+      <c r="O92" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="P92" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E93" s="1" t="n">
+      <c r="E93" s="2" t="n">
         <v>16.8</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H93" s="1" t="n">
+      <c r="H93" s="2" t="n">
         <v>23739600</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I93" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="K93" s="1" t="n">
+      <c r="K93" s="2" t="n">
         <v>0.321</v>
       </c>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1" t="s">
+      <c r="L93" s="2"/>
+      <c r="M93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N93" s="1" t="n">
+      <c r="N93" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="O93" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P93" s="1" t="s">
+      <c r="P93" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E94" s="1" t="n">
+      <c r="E94" s="2" t="n">
         <v>15.6</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H94" s="1" t="n">
+      <c r="H94" s="2" t="n">
         <v>23773100</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="K94" s="1" t="n">
+      <c r="K94" s="2" t="n">
         <v>0.437</v>
       </c>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1" t="s">
+      <c r="L94" s="2"/>
+      <c r="M94" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N94" s="1" t="n">
+      <c r="N94" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="O94" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P94" s="1" t="s">
+      <c r="P94" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E95" s="1" t="n">
+      <c r="E95" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H95" s="1" t="n">
+      <c r="H95" s="2" t="n">
         <v>23785200</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K95" s="1" t="n">
+      <c r="K95" s="2" t="n">
         <v>0.326</v>
       </c>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1" t="s">
+      <c r="L95" s="2"/>
+      <c r="M95" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N95" s="1" t="n">
+      <c r="N95" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="O95" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P95" s="1" t="s">
+      <c r="P95" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E96" s="1" t="n">
+      <c r="E96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H96" s="1" t="n">
+      <c r="H96" s="2" t="n">
         <v>23789400</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="K96" s="1" t="n">
+      <c r="K96" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1" t="s">
+      <c r="L96" s="2"/>
+      <c r="M96" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="N96" s="1" t="n">
+      <c r="N96" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="O96" s="1" t="s">
+      <c r="O96" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="P96" s="1" t="s">
+      <c r="P96" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E97" s="1" t="n">
+      <c r="E97" s="2" t="n">
         <v>16.6</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H97" s="1" t="n">
+      <c r="H97" s="2" t="n">
         <v>23824000</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="K97" s="1" t="n">
+      <c r="K97" s="2" t="n">
         <v>0.306</v>
       </c>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1" t="s">
+      <c r="L97" s="2"/>
+      <c r="M97" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N97" s="1" t="n">
+      <c r="N97" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="O97" s="1" t="s">
+      <c r="O97" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P97" s="1" t="s">
+      <c r="P97" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E98" s="1" t="n">
+      <c r="E98" s="2" t="n">
         <v>16.6</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H98" s="1" t="n">
+      <c r="H98" s="2" t="n">
         <v>24203300</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="K98" s="1" t="n">
+      <c r="K98" s="2" t="n">
         <v>0.338</v>
       </c>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1" t="s">
+      <c r="L98" s="2"/>
+      <c r="M98" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N98" s="1" t="n">
+      <c r="N98" s="2" t="n">
         <v>2003</v>
       </c>
-      <c r="O98" s="1" t="s">
+      <c r="O98" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P98" s="1" t="s">
+      <c r="P98" s="2" t="s">
         <v>304</v>
       </c>
     </row>
